--- a/SWAT Schedule Apr 18, Thursday.xlsx
+++ b/SWAT Schedule Apr 18, Thursday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="71">
   <si>
     <t>APR 18, THURSDAY</t>
   </si>
@@ -136,88 +136,88 @@
     <t>Emmy</t>
   </si>
   <si>
+    <t>SERVE</t>
+  </si>
+  <si>
+    <t>HALF STAFF</t>
+  </si>
+  <si>
+    <t>FLAG UP</t>
+  </si>
+  <si>
+    <t>MAIL</t>
+  </si>
+  <si>
+    <t>DH</t>
+  </si>
+  <si>
+    <t>DISH</t>
+  </si>
+  <si>
+    <t>SWEETING</t>
+  </si>
+  <si>
+    <t>BOYS BATH</t>
+  </si>
+  <si>
+    <t>BALLOONS</t>
+  </si>
+  <si>
+    <t>TRASH WATER</t>
+  </si>
+  <si>
+    <t>KSWAT1</t>
+  </si>
+  <si>
+    <t>PLAYTIME/OFF</t>
+  </si>
+  <si>
+    <t>CLODGE</t>
+  </si>
+  <si>
+    <t>GIRLS BATH</t>
+  </si>
+  <si>
+    <t>CAMP STORE</t>
+  </si>
+  <si>
+    <t>PAV</t>
+  </si>
+  <si>
+    <t>PAC</t>
+  </si>
+  <si>
+    <t>SLOUNGE</t>
+  </si>
+  <si>
+    <t>GIRLS GROTTO</t>
+  </si>
+  <si>
+    <t>OFFICE</t>
+  </si>
+  <si>
+    <t>KSWAT2</t>
+  </si>
+  <si>
+    <t>KSWAT3</t>
+  </si>
+  <si>
     <t>WATER RUN</t>
   </si>
   <si>
-    <t>DISH</t>
-  </si>
-  <si>
-    <t>HALF STAFF</t>
-  </si>
-  <si>
-    <t>FLAG UP</t>
-  </si>
-  <si>
-    <t>SERVE</t>
-  </si>
-  <si>
-    <t>CAMP STORE</t>
-  </si>
-  <si>
-    <t>SWEETING</t>
-  </si>
-  <si>
-    <t>DH</t>
-  </si>
-  <si>
-    <t>BALLOONS</t>
-  </si>
-  <si>
-    <t>SLOUNGE</t>
-  </si>
-  <si>
-    <t>MAIL</t>
+    <t>CHAPEL</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>BOYS GROTTO</t>
+  </si>
+  <si>
+    <t>BLOB</t>
   </si>
   <si>
     <t>BARRET</t>
-  </si>
-  <si>
-    <t>BOYS GROTTO</t>
-  </si>
-  <si>
-    <t>PAV</t>
-  </si>
-  <si>
-    <t>CHAPEL</t>
-  </si>
-  <si>
-    <t>KSWAT2</t>
-  </si>
-  <si>
-    <t>BOYS BATH</t>
-  </si>
-  <si>
-    <t>TRASH WATER</t>
-  </si>
-  <si>
-    <t>PLAYTIME/OFF</t>
-  </si>
-  <si>
-    <t>KSWAT3</t>
-  </si>
-  <si>
-    <t>GIRLS BATH</t>
-  </si>
-  <si>
-    <t>CLODGE</t>
-  </si>
-  <si>
-    <t>KSWAT1</t>
-  </si>
-  <si>
-    <t>BLOB</t>
-  </si>
-  <si>
-    <t>PAC</t>
-  </si>
-  <si>
-    <t>GIRLS GROTTO</t>
-  </si>
-  <si>
-    <t>HC</t>
-  </si>
-  <si>
-    <t>OFFICE</t>
   </si>
   <si>
     <t>POOL</t>
@@ -301,7 +301,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF4CCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,31 +331,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFB6C1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC9DAF8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFB6C1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,10 +389,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -765,60 +765,57 @@
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>46</v>
+      <c r="H5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="C6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q6" s="6" t="s">
+      <c r="H6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="8" t="s">
         <v>49</v>
       </c>
     </row>
@@ -826,60 +823,60 @@
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="B7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="G7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q7" s="6" t="s">
+      <c r="H7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>51</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>45</v>
+      <c r="H8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -887,25 +884,25 @@
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>43</v>
+      <c r="C9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="8" t="s">
         <v>53</v>
       </c>
     </row>
@@ -913,26 +910,29 @@
       <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>46</v>
+      <c r="C10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -940,56 +940,53 @@
         <v>23</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>54</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="M12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q12" s="6" t="s">
+      <c r="C12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q12" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -997,261 +994,285 @@
       <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>43</v>
+      <c r="C13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>57</v>
+        <v>40</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="P14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>60</v>
+      <c r="C14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>43</v>
+      <c r="C15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>61</v>
+        <v>40</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>40</v>
+      <c r="C16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="H17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="P17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>64</v>
+      <c r="C17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="P18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q18" s="6" t="s">
-        <v>65</v>
+      <c r="C18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="K18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="6" t="s">
+      <c r="C19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="P19" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>66</v>
+      <c r="H19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="P19" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="6" t="s">
+      <c r="B20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P20" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q20" s="6" t="s">
-        <v>57</v>
+      <c r="H20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>43</v>
+      <c r="B21" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="P21" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1259,53 +1280,56 @@
         <v>34</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="M22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q22" s="6" t="s">
-        <v>57</v>
+        <v>40</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P23" s="6" t="s">
+      <c r="C23" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="P23" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1313,128 +1337,119 @@
       <c r="A24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="P24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q24" s="6" t="s">
-        <v>67</v>
+      <c r="C24" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="P24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="P25" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q25" s="6" t="s">
-        <v>68</v>
+      <c r="C25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="M26" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="P26" s="6" t="s">
-        <v>46</v>
+      <c r="C26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="6" t="s">
+      <c r="B27" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L27" s="10" t="s">
+      <c r="H27" s="10" t="s">
         <v>45</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="P27" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1444,14 +1459,14 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F18:I18"/>
     <mergeCell ref="J19:M19"/>
     <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J23:M23"/>
     <mergeCell ref="J24:M24"/>
-    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="B27:E27"/>
     <mergeCell ref="B2:Q3"/>
     <mergeCell ref="A28:Q28"/>
   </mergeCells>
